--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_434__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_434__Reeval_Halton_Modell_1.1.xlsx
@@ -5990,40 +5990,40 @@
                   <c:v>55.03167343139648</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.26589965820312</c:v>
+                  <c:v>48.26589584350586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.93649291992188</c:v>
+                  <c:v>38.93648910522461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.22322463989258</c:v>
+                  <c:v>51.22322845458984</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-2.324043035507202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53.13617324829102</c:v>
+                  <c:v>53.13617706298828</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.9519530534744263</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4205247163772583</c:v>
+                  <c:v>0.4205271899700165</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>52.1252555847168</c:v>
@@ -6032,175 +6032,175 @@
                   <c:v>24.93440246582031</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.457273483276367</c:v>
+                  <c:v>2.457270860671997</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>46.15451812744141</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.18083953857422</c:v>
+                  <c:v>44.18083190917969</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.596191167831421</c:v>
+                  <c:v>3.596189975738525</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.8291191458702087</c:v>
+                  <c:v>-0.8291118144989014</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.422698050737381</c:v>
+                  <c:v>0.4227029383182526</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39.12143325805664</c:v>
+                  <c:v>39.12143707275391</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>46.08847427368164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.484829783439636</c:v>
+                  <c:v>1.484830021858215</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>48.12357711791992</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.5835627913475037</c:v>
+                  <c:v>-0.5835652351379395</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.029170751571655</c:v>
+                  <c:v>3.029173374176025</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.1881200671195984</c:v>
+                  <c:v>-0.1881198287010193</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45.38976287841797</c:v>
+                  <c:v>45.38976669311523</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45.44485473632812</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.730721950531006</c:v>
+                  <c:v>5.730724334716797</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.811532258987427</c:v>
+                  <c:v>3.811525583267212</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>51.7966194152832</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.104453444480896</c:v>
+                  <c:v>1.104451060295105</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>39.10365295410156</c:v>
+                  <c:v>39.10365676879883</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>58.56067276000977</c:v>
+                  <c:v>58.5606803894043</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>39.543701171875</c:v>
+                  <c:v>39.54370498657227</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>52.38132858276367</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>52.39453887939453</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>47.58207702636719</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>48.28838348388672</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.299353122711182</c:v>
+                  <c:v>3.299360036849976</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>45.96262741088867</c:v>
+                  <c:v>45.96262359619141</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.165534734725952</c:v>
+                  <c:v>3.165537118911743</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>45.96795272827148</c:v>
+                  <c:v>45.96794509887695</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.311409592628479</c:v>
+                  <c:v>1.311407208442688</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>46.77954864501953</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>45.13035202026367</c:v>
+                  <c:v>45.1303596496582</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>38.92375946044922</c:v>
+                  <c:v>38.92375564575195</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>48.52800369262695</c:v>
+                  <c:v>48.52800750732422</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>51.3785285949707</c:v>
@@ -6209,82 +6209,82 @@
                   <c:v>53.30779266357422</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>41.28787994384766</c:v>
+                  <c:v>41.28788375854492</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.894054412841797</c:v>
+                  <c:v>2.894049644470215</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>26.32472610473633</c:v>
+                  <c:v>26.32472229003906</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>51.36362838745117</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.193169593811035</c:v>
+                  <c:v>4.193167209625244</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>39.93624496459961</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.901501655578613</c:v>
+                  <c:v>3.901502132415771</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>51.89849853515625</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>41.7371826171875</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.480439186096191</c:v>
+                  <c:v>9.480440139770508</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.58191680908203</c:v>
+                  <c:v>19.58193016052246</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>47.16869354248047</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.551084518432617</c:v>
+                  <c:v>2.551093101501465</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.511730194091797</c:v>
+                  <c:v>7.511728763580322</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>22.50622749328613</c:v>
+                  <c:v>22.50622177124023</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.9022983312606812</c:v>
+                  <c:v>0.902290940284729</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>51.47819137573242</c:v>
+                  <c:v>51.47818756103516</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>46.74244689941406</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>63.90121078491211</c:v>
+                  <c:v>63.90121841430664</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>46.89488983154297</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>28.24277114868164</c:v>
+                  <c:v>28.24276733398438</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.1653036326169968</c:v>
+                  <c:v>-0.1653034836053848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7011,7 +7011,7 @@
         <v>29.3754</v>
       </c>
       <c r="F3">
-        <v>48.26589965820312</v>
+        <v>48.26589584350586</v>
       </c>
       <c r="G3">
         <v>85</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
       <c r="G4">
         <v>85</v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>38.93649291992188</v>
+        <v>38.93648910522461</v>
       </c>
       <c r="G5">
         <v>85</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>51.22322463989258</v>
+        <v>51.22322845458984</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>53.13617324829102</v>
+        <v>53.13617706298828</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4205247163772583</v>
+        <v>0.4205271899700165</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.457273483276367</v>
+        <v>2.457270860671997</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>44.18083953857422</v>
+        <v>44.18083190917969</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.596191167831421</v>
+        <v>3.596189975738525</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>-0.8291191458702087</v>
+        <v>-0.8291118144989014</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.422698050737381</v>
+        <v>0.4227029383182526</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>47.2576</v>
       </c>
       <c r="F28">
-        <v>39.12143325805664</v>
+        <v>39.12143707275391</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>43.8987</v>
       </c>
       <c r="F30">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.484829783439636</v>
+        <v>1.484830021858215</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.5835627913475037</v>
+        <v>-0.5835652351379395</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>3.029170751571655</v>
+        <v>3.029173374176025</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-0.1881200671195984</v>
+        <v>-0.1881198287010193</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.8156</v>
       </c>
       <c r="F41">
-        <v>45.38976287841797</v>
+        <v>45.38976669311523</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>43.2953</v>
       </c>
       <c r="F43">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>5.730721950531006</v>
+        <v>5.730724334716797</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>3.811532258987427</v>
+        <v>3.811525583267212</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.104453444480896</v>
+        <v>1.104451060295105</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>39.10365295410156</v>
+        <v>39.10365676879883</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>46.2899</v>
       </c>
       <c r="F51">
-        <v>58.56067276000977</v>
+        <v>58.5606803894043</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>39.543701171875</v>
+        <v>39.54370498657227</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>3.299353122711182</v>
+        <v>3.299360036849976</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>41.9705</v>
       </c>
       <c r="F66">
-        <v>45.96262741088867</v>
+        <v>45.96262359619141</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>3.165534734725952</v>
+        <v>3.165537118911743</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>45.96795272827148</v>
+        <v>45.96794509887695</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>1.311409592628479</v>
+        <v>1.311407208442688</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>45.13035202026367</v>
+        <v>45.1303596496582</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>38.92375946044922</v>
+        <v>38.92375564575195</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>48.0588</v>
       </c>
       <c r="F73">
-        <v>48.52800369262695</v>
+        <v>48.52800750732422</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>41.28787994384766</v>
+        <v>41.28788375854492</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>2.894054412841797</v>
+        <v>2.894049644470215</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>26.32472610473633</v>
+        <v>26.32472229003906</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>4.193169593811035</v>
+        <v>4.193167209625244</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>3.901501655578613</v>
+        <v>3.901502132415771</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>9.480439186096191</v>
+        <v>9.480440139770508</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>19.58191680908203</v>
+        <v>19.58193016052246</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>2.551084518432617</v>
+        <v>2.551093101501465</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>7.511730194091797</v>
+        <v>7.511728763580322</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>22.50622749328613</v>
+        <v>22.50622177124023</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.9022983312606812</v>
+        <v>0.902290940284729</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>51.47819137573242</v>
+        <v>51.47818756103516</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>63.90121078491211</v>
+        <v>63.90121841430664</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>28.24277114868164</v>
+        <v>28.24276733398438</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>-0.1653036326169968</v>
+        <v>-0.1653034836053848</v>
       </c>
     </row>
     <row r="102" spans="1:6">
